--- a/Machine Learning/AMD/AMD Control List.xlsx
+++ b/Machine Learning/AMD/AMD Control List.xlsx
@@ -21,7 +21,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
-    <t>/Comer Complete Data Set/White OD 3 (poor image).tif</t>
+    <t>/Comer Complete Data Set/White OD/White OD 1.tif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Comer Complete Data Set/White OD/White OD 2.tif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Comer Complete Data Set/White OD/White OD 3 (poor image).tif</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -37,7 +45,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Comer Complete Data Set/BARR OD 3 (poor quality).tif</t>
+    <t>/Comer Complete Data Set/Barr OD/BARR OD 1.tif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Comer Complete Data Set/Barr OD/BARR OD 2.tif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Comer Complete Data Set/Barr OD/BARR OD 3 (poor quality).tif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Comer Complete Data Set/Bignall OD/BIGNALL OD 1.tif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Comer Complete Data Set/Bignall OD 3 (poor image).tif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Comer Complete Data Set/Bignall OD/BIGNALL OD 2.tif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Comer Complete Data Set/Buchanan OD/BUCHANAN OD 1.tif</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -49,14 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Comer Complete Data Set/BIGNALL OD 2.tif</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Comer Complete Data Set/BIGNALL OD 1.tif</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/Control/BIGNALL OD 2.tif</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -65,14 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Comer Complete Data Set/BIGNALL OD 3 (poor image).tif</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Comer Complete Data Set/BUCHANAN OD 1.tif</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/Control/BUCHANAN OD 1.tif</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,14 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Comer Complete Data Set/White OD 1.tif</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Comer Complete Data Set/White OD 2.tif</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BARR OD 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,14 +134,6 @@
   </si>
   <si>
     <t xml:space="preserve">Labeled </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Comer Complete Data Set/BARR OD 1.tif</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Comer Complete Data Set/BARR OD 2.tif</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -514,19 +514,19 @@
         <v>36</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
@@ -538,7 +538,7 @@
         <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
@@ -550,34 +550,34 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="26">
       <c r="A5" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="26">
       <c r="A6" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -586,82 +586,82 @@
         <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" ht="26">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" ht="26">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="26">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" ht="26">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="26">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" ht="26">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Machine Learning/AMD/AMD Control List.xlsx
+++ b/Machine Learning/AMD/AMD Control List.xlsx
@@ -33,6 +33,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/Comer Complete Data Set/Bignall OD/Bignall OD 3 (poor image).tif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/Control/White OD 1.tif</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,10 +62,6 @@
   </si>
   <si>
     <t>/Comer Complete Data Set/Bignall OD/BIGNALL OD 1.tif</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Comer Complete Data Set/Bignall OD 3 (poor image).tif</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -499,7 +499,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13"/>
@@ -526,7 +526,7 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
@@ -538,7 +538,7 @@
         <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
@@ -550,7 +550,7 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -562,7 +562,7 @@
         <v>33</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -586,7 +586,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -637,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -649,7 +649,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -661,10 +661,11 @@
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Machine Learning/AMD/AMD Control List.xlsx
+++ b/Machine Learning/AMD/AMD Control List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="5880" windowWidth="17840" windowHeight="13000" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="21600" windowHeight="14420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Comer Complete Data Set/Bignall OD/Bignall OD 3 (poor image).tif</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/Control/White OD 1.tif</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,18 +162,16 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>/Comer Complete Data Set/Bignall OD/BIGNALL OD 3 (poor image).tif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10"/>
@@ -488,7 +482,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -499,7 +493,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13"/>
@@ -511,164 +505,162 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="26">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="26">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="26">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="26">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="26">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="26">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="26">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="26">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" ht="26">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
